--- a/documents/SmartIMU_v2.0_BOM.xlsx
+++ b/documents/SmartIMU_v2.0_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hom\workspace\Kit_SmartIMU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BAD520-1724-4E14-8F9F-95ACCBF4964F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B9813B-14E6-4C1C-9346-EE43A8454E4A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="8423" xr2:uid="{6A917CC5-A0DB-4B47-B401-3E3D444AFDAC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="113">
   <si>
     <t>Description</t>
   </si>
@@ -117,18 +117,12 @@
     <t>Resistor</t>
   </si>
   <si>
-    <t>BQ24075</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
     <t>QFN16 P0.5</t>
   </si>
   <si>
-    <t>SP6205-33</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
@@ -163,9 +157,6 @@
   </si>
   <si>
     <t>U5</t>
-  </si>
-  <si>
-    <t>ICM20948</t>
   </si>
   <si>
     <t>U6</t>
@@ -220,36 +211,12 @@
     <t>150R</t>
   </si>
   <si>
-    <t>220R</t>
-  </si>
-  <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
     <t>680R</t>
   </si>
   <si>
     <t>1K</t>
   </si>
   <si>
-    <t>100K</t>
-  </si>
-  <si>
-    <t>R7, R8</t>
-  </si>
-  <si>
-    <t>R1, R3, R5, R6, R10</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>R2, R4, R9, R12, R14, R15</t>
-  </si>
-  <si>
     <t>22uF</t>
   </si>
   <si>
@@ -344,6 +311,60 @@
   </si>
   <si>
     <t>Micro USB</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>XC6210-33</t>
+  </si>
+  <si>
+    <t>Boost</t>
+  </si>
+  <si>
+    <t>TPS613222A</t>
+  </si>
+  <si>
+    <t>MPU9250</t>
+  </si>
+  <si>
+    <t>4.7uH</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>SOD323</t>
+  </si>
+  <si>
+    <t>ZLLS410TA</t>
+  </si>
+  <si>
+    <t>Schottky</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>R2, R3, R4, R5, R6</t>
+  </si>
+  <si>
+    <t>R7, R9</t>
+  </si>
+  <si>
+    <t>1.5K</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R1, R11, R12</t>
   </si>
 </sst>
 </file>
@@ -451,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -491,6 +512,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -815,9 +839,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBD0D63-2624-49EF-A67B-42F32899E10A}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
@@ -836,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -848,81 +874,81 @@
         <v>1</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>63</v>
+      <c r="C2" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" s="17"/>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="17"/>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="16"/>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A4" s="16"/>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="D4" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>68</v>
+      <c r="C5" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="D5" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
@@ -930,356 +956,356 @@
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>57</v>
+      <c r="C6" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="D6" s="5">
         <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="17"/>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9" s="17"/>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="17"/>
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="15"/>
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="17"/>
+      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="17"/>
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.5">
+      <c r="A13" s="17"/>
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="5">
+        <v>14</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" s="17"/>
+      <c r="B14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15" s="17"/>
+      <c r="B15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="5">
+      <c r="F15" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A16" s="17"/>
+      <c r="B16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="5">
         <v>2</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A9" s="16"/>
-      <c r="B9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="16"/>
-      <c r="B10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="5">
-        <v>4</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" s="16"/>
-      <c r="B11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A12" s="16"/>
-      <c r="B12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A13" s="16"/>
-      <c r="B13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.5">
-      <c r="A14" s="16"/>
-      <c r="B14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="5">
-        <v>14</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A15" s="16"/>
-      <c r="B15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A16" s="16"/>
-      <c r="B16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="5">
-        <v>3</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>60</v>
+        <v>107</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="D17" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18" s="16"/>
       <c r="B18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A19" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A20" s="17"/>
+      <c r="B20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A21" s="17"/>
+      <c r="B21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A19" s="15"/>
-      <c r="B19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A21" s="16"/>
-      <c r="B21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>94</v>
+      <c r="C21" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="D21" s="5">
         <v>1</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>62</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A22" s="15"/>
-      <c r="B22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>95</v>
+      <c r="A22" s="16"/>
+      <c r="B22" s="6">
+        <v>1008</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A23" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A24" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="5">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A24" s="16"/>
-      <c r="B24" s="6" t="s">
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A25" s="17"/>
+      <c r="B25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A25" s="15"/>
-      <c r="B25" s="6">
-        <v>1616</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
@@ -1288,267 +1314,285 @@
         <v>20</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A26" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="6">
+        <v>1616</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A27" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A28" s="17"/>
+      <c r="B28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="F28" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A29" s="17"/>
+      <c r="B29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A30" s="17"/>
+      <c r="B30" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A31" s="17"/>
+      <c r="B31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A27" s="16"/>
-      <c r="B27" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A28" s="16"/>
-      <c r="B28" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="5">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A29" s="16"/>
-      <c r="B29" s="6" t="s">
+      <c r="C31" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A32" s="17"/>
+      <c r="B32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="5">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A30" s="16"/>
-      <c r="B30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="5">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A31" s="16"/>
-      <c r="B31" s="6" t="s">
+      <c r="F32" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A33" s="16"/>
+      <c r="B33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C33" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="5">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4" t="s">
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A32" s="15"/>
-      <c r="B32" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="F33" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A34" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="5">
-        <v>1</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="B34" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A33" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="5">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A34" s="15"/>
-      <c r="B34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>101</v>
+      <c r="C34" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A35" s="14" t="s">
-        <v>104</v>
-      </c>
+      <c r="A35" s="16"/>
       <c r="B35" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A36" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="5">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A36" s="15"/>
-      <c r="B36" s="6" t="s">
+      <c r="F36" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A37" s="16"/>
+      <c r="B37" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="5">
-        <v>1</v>
-      </c>
-      <c r="E36" s="4" t="s">
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A37" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="5">
-        <v>1</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="F37" s="9" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A38" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A39" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B39" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="5">
-        <v>1</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F39" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A8:A19"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A7:A18"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A24:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B2:B38" numberStoredAsText="1"/>
+    <ignoredError sqref="B24:B26 B29:B39 B2 B19:B21 B17:B18 B3:B16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>